--- a/0咪咕音乐/咪咕音乐超编v1120/咪咕音乐媒资门户USS-V1.12.0版本测试用例.xlsx
+++ b/0咪咕音乐/咪咕音乐超编v1120/咪咕音乐媒资门户USS-V1.12.0版本测试用例.xlsx
@@ -261,12 +261,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>୧(</t>
     </r>
     <r>
@@ -849,21 +843,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,16 +895,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -907,32 +926,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -964,13 +959,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -986,7 +980,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,7 +1019,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,49 +1043,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,13 +1073,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,7 +1139,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,85 +1199,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,6 +1330,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1347,26 +1356,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1410,17 +1399,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1441,10 +1435,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1453,133 +1447,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2037,9 +2031,9 @@
   <dimension ref="A1:AC64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
